--- a/biology/Zoologie/Bécasseau_minuscule/Bécasseau_minuscule.xlsx
+++ b/biology/Zoologie/Bécasseau_minuscule/Bécasseau_minuscule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris minutilla
 Le Bécasseau minuscule (Calidris minutilla) est une petite espèce de limicole appartenant à la famille des Scolopacidae et à la sous-famille des Calidridinae. Son nom fait allusion à sa petite taille, il est cependant un peu plus grand que le Bécasseau minute.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 14 cm de longueur pour une masse de 21 g.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau minuscule se reproduit dans la toundra à monticules et végétation abondante. En période internuptiale, il fréquente les vasières et les rives des bassins et des lacs.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau minuscule niche en Alaska et dans le nord du Canada. Il hiverne dans le sud des États-Unis, aux Antilles et dans le nord de l'Amérique du Sud.
 Il est occasionnel au Japon, en Islande et en Europe occidentale.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">"Kriiip" fins, en brève série montante. 
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_minuscule</t>
+          <t>Bécasseau_minuscule</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Taylor D. (2006) Guide des limicoles d'Europe, d'Asie et d'Amérique du Nord. Delachaux &amp; Niestlé, Paris, 224 p.</t>
         </is>
